--- a/data/evaluation/evaluation_Center_Autumn_Pomelo.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Pomelo.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4184.071644405715</v>
+        <v>3998.781763787793</v>
       </c>
       <c r="C4" t="n">
-        <v>39962584.27531609</v>
+        <v>37017644.49185862</v>
       </c>
       <c r="D4" t="n">
-        <v>6321.596655538543</v>
+        <v>6084.212725723733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4774847284541109</v>
+        <v>0.5159901464230394</v>
       </c>
     </row>
     <row r="5">
